--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Losrios.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Losrios.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Rff35f88dbbc747b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R9319f076c5634317"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36178</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1631203.2227873</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5066018.1818181</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14189.551772</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36349</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1634167.063523</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4593010.290909</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14926.195107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36562</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1680867.0265576</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4454520.0727272</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15565.496242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36913</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1668012.6379866</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4235629.8545454</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15028.573911</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37104</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1715908.6414672</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4463603.0363636</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15966.473685</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37356</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1739555.1609647</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4762046.6363636</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16774.641288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37503</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1673019.9614164</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4932815.1272727</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15316.881214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37707</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1630219.5473784</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4977876.1818181</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16284.344876</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37846</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1663862.7315964</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4486497.690909</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15264.568172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38110</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1594190.492784</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6109466.9655172</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16533.57538</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38331</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1561893.8324854</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6359095.7192982</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16989.313989</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38532</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1624588.9347814</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5886954.4736842</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17499.193526</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1646081.5956243</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5815739.4821428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18723.98537</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38839</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1701078.8019773</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5835104.7321428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19171.027052</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39057</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1776771.0091917</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5652169.4210526</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17502.544535</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39276</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1770070.7746206</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6314142.1785714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19052.047921</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39804</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1791107.8203698</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6049581.6724137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20369.779106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40198</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1745051.3190954</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5701610.4915254</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18808.37799</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40547</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1672027.4580363</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5485495.25</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19438.950451</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40855</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1635341.2890711</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5741396.0333333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20140.385336</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41124</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1670562.4680235</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8345314.7833333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20089.043877</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41346</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1647382.4505635</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9372860.7213114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20440.693228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41613</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1661996.6313411</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9502028.9836065</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21104.928871</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41901</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1728216.0006921</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7985329.4920634</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22685.303465</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42170</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1745533.0128764</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7474446.9384615</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23664.681051</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42339</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1822404.2005007</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8897798.84375</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24330.871355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42630</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1895887.6966221</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9898699.96875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23451.137023</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42943</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1832138.7237733</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9335073.761194</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23699.125014</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43176</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1880408.1558504</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8756852</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24869.751807</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43537</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1887077.0924501</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9002333.4477611</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23480.950997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43831</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1827121.7738586</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9000435.8970588</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24560.322999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44147</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1798172.0952046</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9220645.0882352</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23204.092165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44372</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1801115.1835617</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9943093.1014492</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25239.914849</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44716</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1774822.5610296</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9866682.1142857</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25982.829049</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45027</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1766174.4273435</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10490652.225352</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24363.225046</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45261</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1817813.048165</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11050281.72</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28164.379684</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45441</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1889859.8604784</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10451648.144736</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29030.855667</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45627</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1950459.1066254</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10072863.77922</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28297.553208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45951</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1966456.4054536</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10389294.155844</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29321.696162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46245</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1944627.6985187</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10617737.961039</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29770.448799</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46546</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2007327.4881837</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10886624.209876</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30419.60206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46787</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1990339.5181567</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11056097.987804</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30399.369419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47026</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1910078.767065</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11750008.277108</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30477.626727</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47293</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1879902.1702366</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11974024.011904</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29649.991426</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47548</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1879991.0062673</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11085076.404761</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31009.490284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47786</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1876261.5644749</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10372064.523809</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30753.976709</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48043</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1841119.7577378</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10438145.290697</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29729.784085</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48332</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1882110.8084705</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10875485.264367</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33045.821725</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48492</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1926364.9475171</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10804102.896551</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32268.416663</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48589</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1956234.8257836</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11439013.965909</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33515.002659999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48981</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2016647.2777403</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10394987.426966</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33370.589829</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49281</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1971243.7093809</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10079950.945054</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34124.590255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49637</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1985775.792433</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9501897.2826087</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34398.929087</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49930</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1997218.0794111</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11514581.106383</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36231.13206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50200</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1962179.271494</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13447332.305263</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33640.552452</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50569</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1919126.6116593</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11561526.156862</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35789.008579</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50818</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1955886.2250777</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11076166.083333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37336.046718</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51108</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1936104.5417547</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11894829.72477</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36392.042624</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51530</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1909396.0309334</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11985878.491071</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38368.999366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51810</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1970867.7840571</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11241728.008695</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41749.963794</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1952412.3724226</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10452674.991596</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40645.12829</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52371</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2001701.2123694</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10936111.975609</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42704.739977</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52805</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2036126.5010321</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11851309.66129</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43545.982298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53123</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1985769.0265045</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12148917.1875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41185.56606</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53465</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2005080.214963</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12641475.015625</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44162.437055</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53725</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1991450.6323685</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11959702.653846</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45890.232668</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53990</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1950110.043934</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11409696.023076</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42845.321473</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54385</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1921280.0107382</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12242791.615384</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45749.979821</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54660</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1940605.1260336</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13831929.267175</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45876.302646</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55224</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1895243.3822794</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12783576.59854</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45409.89836</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55577</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1877197.3413822</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11193018.167883</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47181.026977</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56019</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1964942.7876613</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10916994.492753</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50104.232028</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56239</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1954084.6832802</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10083023.043795</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48963.402706</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56509</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1997925.5275442</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9707493.489051</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51765.302863</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56900</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2062553.1850615</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10020531.85</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53369.571739</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57293</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2049902.340216</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9245592.8661971</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53264.446906</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57706</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2081572.6855612</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10170340.258741</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55932.428358</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58029</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2058589.2807044</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10356822.506944</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56313.197243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58478</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2014457.4489893</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10430023.367346</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53571.945618</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58798</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1993627.5856831</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12269225.089655</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56060.255196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58252</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2059589.754532</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17701302.678571</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53594.850485</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58449</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2040521.8640866</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17554992.801418</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56016.987909</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58629</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2076401.413072</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20897731.782312</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57523.869276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58774</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2168414.7775206</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16128033.95302</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59246.802512</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58976</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2145584.0040694</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15716759.269736</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62718.530781</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59101</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2215990.5864029</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16865569.377483</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65087.860042</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59165</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2316210.8832079</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17790443.12258</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65618.124421</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59077</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2469149.9201042</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21315598.788461</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73469.566977</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59035</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2679383.3895824</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18613652.1875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76534.105393</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59006</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2877441.0967359</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18486057.345679</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75253.050491</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59163</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2935079.9606341</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18330158.372781</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82546.135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59248</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3074034.8034701</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19433153.129943</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>143473.326914</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59458</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3262166.0225705</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18424971.484042</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>139571.36623</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59708</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3327069.9414483</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19604655.301587</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129197.563365</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60052</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3293190.5458103</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21415645.52551</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121589.509466</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60312</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3392757.1191139</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18200786.862069</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>177617.968746</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>167006.737481</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>158987.762197</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>155399.974949</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>157480.917654</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>202325.95676</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>191037.830153</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>191938.674723</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>185179.479136</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>182767.461453</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>178927.91451</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>171329.822818</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>173788.103002</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>162453.503321</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>158342.493276</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>149763.313758</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>146345.003278</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>137779.722561</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>133773.336712</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>128454.594383</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>124281.541026</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>124226.095245</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>119732.370465</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>113604.171719</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>116934.306019</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>113072.480842</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>114639.914041</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>114807.406761</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>113543.309182</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>109652.136433</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>110884.008198</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>102342.080906</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>103974.548755</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>105145.118189</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>101050.766841</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>101953.970215</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>107667.987452</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>105717.901993</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>111429.35528</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>110828.869453</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>106871.118263</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>108812.122438</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>108199.108372</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>102430.079205</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
